--- a/ABSLITest/src/main/java/com/ABSLI/qa/testdata/ClaimData.xlsx
+++ b/ABSLITest/src/main/java/com/ABSLI/qa/testdata/ClaimData.xlsx
@@ -9,11 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7245" windowHeight="5955" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7245" windowHeight="5955" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="ClaimIntimation" sheetId="1" r:id="rId1"/>
-    <sheet name="ClaimAssessment" sheetId="2" r:id="rId2"/>
+    <sheet name="ClaimRegistration" sheetId="3" r:id="rId2"/>
+    <sheet name="ClaimAssessment" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="43">
   <si>
     <t>Location Of Event</t>
   </si>
@@ -90,9 +92,6 @@
     <t>05/04/2024</t>
   </si>
   <si>
-    <t>01/04/2024</t>
-  </si>
-  <si>
     <t>Claim Reccommendation</t>
   </si>
   <si>
@@ -118,13 +117,52 @@
   </si>
   <si>
     <t>Document Type</t>
+  </si>
+  <si>
+    <t>Client Name</t>
+  </si>
+  <si>
+    <t>Master Policy Number</t>
+  </si>
+  <si>
+    <t>Member ID</t>
+  </si>
+  <si>
+    <t>Is same as NB or Endorsement Nominees</t>
+  </si>
+  <si>
+    <t>500000</t>
+  </si>
+  <si>
+    <t>Claim Amount</t>
+  </si>
+  <si>
+    <t>Claim Settlement Amount</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Automation</t>
+  </si>
+  <si>
+    <t>AUTGPOY202400022193</t>
+  </si>
+  <si>
+    <t>10/04/2024</t>
+  </si>
+  <si>
+    <t>ABSLI012024000000101932</t>
+  </si>
+  <si>
+    <t>Aadhar Card</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -144,8 +182,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -161,6 +205,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -192,18 +242,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -484,7 +537,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -492,94 +545,150 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="38" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="E1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="F1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="G1" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="I1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="J1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="K1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="L1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="M1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="N1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="O1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="P1" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q1" s="8" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="R1" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="S1" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="T1" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="E2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="G2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="I2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="J2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="K2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="L2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="1">
+      <c r="M2" s="3">
         <v>987654321</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="N2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="4">
+      <c r="O2" s="3">
         <v>100</v>
       </c>
-      <c r="L2" s="3" t="s">
-        <v>20</v>
+      <c r="P2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="R2" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="T2" s="9" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -590,60 +699,163 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="5">
+        <v>50000</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="D2" s="5">
+        <v>50000</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
